--- a/设计模式/单例模式.xlsx
+++ b/设计模式/单例模式.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BE53BF2-D5EF-4F47-90F0-238C8F5A2920}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640125EF-D067-4A89-BC6C-AB016EE44AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +495,94 @@
         <a:xfrm>
           <a:off x="276225" y="34728150"/>
           <a:ext cx="7209524" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>122709</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>66088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06601959-5144-460D-822E-9B5E891135E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="38623875"/>
+          <a:ext cx="8923809" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>217940</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>161694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADE2F8-ED43-47ED-B9AB-04CB85CF4152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="43738800"/>
+          <a:ext cx="9076190" cy="1847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -771,18 +859,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -790,6 +878,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/设计模式/单例模式.xlsx
+++ b/设计模式/单例模式.xlsx
@@ -1,50 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640125EF-D067-4A89-BC6C-AB016EE44AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18840" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+  <si>
+    <t>单例模式</t>
+  </si>
   <si>
     <t>https://mp.weixin.qq.com/s/1fQkkdtzYh_OikbYJnmZWg</t>
   </si>
   <si>
-    <t>单例模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://blog.csdn.net/qq_34337272/article/details/80455972</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -52,20 +47,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,32 +404,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -114,19 +732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74732272-F8D9-4E72-8345-82E72A579953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -134,7 +746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="1019175"/>
-          <a:ext cx="6628571" cy="3733333"/>
+          <a:ext cx="6628130" cy="3733165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -158,19 +770,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDC3A4A-3E3B-4CAD-BB39-D58E41831138}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -178,7 +784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="5200650"/>
-          <a:ext cx="7085714" cy="4304762"/>
+          <a:ext cx="7085330" cy="4304665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -202,19 +808,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1D4C98-BD06-48D5-AC28-82FA31AC9538}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -222,7 +822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="10467975"/>
-          <a:ext cx="6695238" cy="4409524"/>
+          <a:ext cx="6694805" cy="4409440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -246,19 +846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3997507C-769A-46E4-A018-9212CDB8E3AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -266,7 +860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="457200" y="16049625"/>
-          <a:ext cx="7304762" cy="5533333"/>
+          <a:ext cx="7304405" cy="5532755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -290,19 +884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA18C22-EA8F-4F71-957B-6290FEA2DD86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -310,7 +898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="22764750"/>
-          <a:ext cx="7228571" cy="5342857"/>
+          <a:ext cx="7228205" cy="5342255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -332,20 +920,14 @@
       <xdr:row>161</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="http://mmbiz.qpic.cn/mmbiz_png/NtO5sialJZGpAk7Utxx9rVSDy32ROk1h3uVJcIG2tq2C7KUibRVlMh8KAcU1y0UP6nM2TKDrzfRIc8jgm43wSKTQ/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5989A076-7C49-4D30-BE0A-197ADC05BF86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="http://mmbiz.qpic.cn/mmbiz_png/NtO5sialJZGpAk7Utxx9rVSDy32ROk1h3uVJcIG2tq2C7KUibRVlMh8KAcU1y0UP6nM2TKDrzfRIc8jgm43wSKTQ/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1905000" y="28956000"/>
           <a:ext cx="304800" cy="304800"/>
@@ -380,20 +962,14 @@
       <xdr:row>160</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="http://mmbiz.qpic.cn/mmbiz_png/NtO5sialJZGpAk7Utxx9rVSDy32ROk1h3uVJcIG2tq2C7KUibRVlMh8KAcU1y0UP6nM2TKDrzfRIc8jgm43wSKTQ/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE23453-7378-4F76-B0F8-9DDDF25060E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="http://mmbiz.qpic.cn/mmbiz_png/NtO5sialJZGpAk7Utxx9rVSDy32ROk1h3uVJcIG2tq2C7KUibRVlMh8KAcU1y0UP6nM2TKDrzfRIc8jgm43wSKTQ/640?wx_fmt=png&amp;tp=webp&amp;wxfrom=5&amp;wx_lazy=1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="476250" y="28775025"/>
           <a:ext cx="304800" cy="304800"/>
@@ -430,19 +1006,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55413FD9-D759-47E7-A5C8-4EFF8BAD0F1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -450,7 +1020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="419100" y="29136975"/>
-          <a:ext cx="6628571" cy="5180952"/>
+          <a:ext cx="6628130" cy="5180330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -474,19 +1044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34559555-304A-4565-B80B-DA6A1C625B3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -494,7 +1058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="276225" y="34728150"/>
-          <a:ext cx="7209524" cy="2752381"/>
+          <a:ext cx="7209155" cy="2752090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -518,19 +1082,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06601959-5144-460D-822E-9B5E891135E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -538,7 +1096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="38623875"/>
-          <a:ext cx="8923809" cy="4695238"/>
+          <a:ext cx="8923655" cy="4695190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,19 +1120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADE2F8-ED43-47ED-B9AB-04CB85CF4152}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -582,11 +1134,347 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="43738800"/>
-          <a:ext cx="9076190" cy="1847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:ext cx="9076055" cy="1847215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="46520100"/>
+          <a:ext cx="7277100" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="50806350"/>
+          <a:ext cx="7124700" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="53606700"/>
+          <a:ext cx="7134225" cy="6972300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="60883800"/>
+          <a:ext cx="7248525" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="65512950"/>
+          <a:ext cx="7162800" cy="4391025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="70037325"/>
+          <a:ext cx="7048500" cy="7038975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="77314425"/>
+          <a:ext cx="7038975" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="81238725"/>
+          <a:ext cx="7096125" cy="6343650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -637,7 +1525,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +1560,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -846,39 +1734,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AJ257"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F244" sqref="F244"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
+    <row r="257" spans="36:36">
+      <c r="AJ257" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="AJ257" r:id="rId2" display="https://blog.csdn.net/qq_34337272/article/details/80455972"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>